--- a/biology/Histoire de la zoologie et de la botanique/Primatologie/Primatologie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Primatologie/Primatologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La primatologie est la discipline qui étudie les espèces de l'ordre des Primates, c'est-à-dire les mammifères communément appelés singes, lémuriens, tarsiers, loris, ainsi que l'espèce humaine et ses ancêtres proches.
 </t>
@@ -511,11 +523,11 @@
           <t>Étymologie et définitions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme « primatologie » n'apparait par écrit qu'en 1941 sous la plume de Theodore Cedric Ruch dans son ouvrage Bibliographia Primatologica[1].
-L'ordre des Primates
-Le terme « primate », du latin primates (« premiers »), a été choisi par le père de la systématique moderne Carl von Linné pour désigner l'ordre de mammifères supérieurs dans lequel il classait l'être humain. En plus des singes et de lémuriens, Linné y ajoutait les chauve-souris. Par la suite, certains auteurs ont tenté d'y incorporer d'autres animaux au rang incertain, comme les dermoptères ou les toupayes. Malgré une histoire déjà ancienne et une composition relativement stable au cours du temps, l'ordre de Primates est plus compliqué à définir que beaucoup d'autres ordres de mammifères : en effet, nombre de leurs caractéristiques ne sont pas uniques et se retrouvent chez d'autres animaux. Ainsi, la délimitation de l'ordre se base plutôt sur un ensemble de traits distinctifs partagés, qui peuvent être observés indépendamment au sein d'autres ordres de mammifères[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme « primatologie » n'apparait par écrit qu'en 1941 sous la plume de Theodore Cedric Ruch dans son ouvrage Bibliographia Primatologica.
 </t>
         </is>
       </c>
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Histoire et développement</t>
+          <t>Étymologie et définitions</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La primatologie n'a émergé en tant que discipline distincte au sein de la biologie que dans la deuxième moitié des années 1950. Même si l'Homme a toujours manifesté de l'intérêt pour ces animaux étrangement proches, les primates ont longtemps constitué une curiosité et un sujet d'amusement plus qu'un objet d'étude sérieuse[3].
+          <t>L'ordre des Primates</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme « primate », du latin primates (« premiers »), a été choisi par le père de la systématique moderne Carl von Linné pour désigner l'ordre de mammifères supérieurs dans lequel il classait l'être humain. En plus des singes et de lémuriens, Linné y ajoutait les chauve-souris. Par la suite, certains auteurs ont tenté d'y incorporer d'autres animaux au rang incertain, comme les dermoptères ou les toupayes. Malgré une histoire déjà ancienne et une composition relativement stable au cours du temps, l'ordre de Primates est plus compliqué à définir que beaucoup d'autres ordres de mammifères : en effet, nombre de leurs caractéristiques ne sont pas uniques et se retrouvent chez d'autres animaux. Ainsi, la délimitation de l'ordre se base plutôt sur un ensemble de traits distinctifs partagés, qui peuvent être observés indépendamment au sein d'autres ordres de mammifères.
 </t>
         </is>
       </c>
@@ -572,20 +590,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Champs d'études</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Écologie comportementale
-Primatologie médicale
-Primatologie culturelle
-La culture a longtemps été considérée comme l'une des caractéristiques de la nature humaine. Le domaine de la primatologie culturelle est apparu comme un moyen d’enquêter sur les racines évolutives de la culture. Bien que l'étude de la transmission culturelle et de l’évolution des mécanismes d’apprentissage social ait été entreprise chez de nombreux animaux, les primates ont concentré l'essentiel des efforts de recherche.
-Paléoprimatologie
-La paléoprimatologie est l'étude des primates fossiles dans le but de mieux comprendre leur histoire évolutive. Elle comprend la paléoanthropologie, ou paléontologie humaine.
-Ethnoprimatologie
-Conservation
-La biologie de la conservation, appliquée aux primates, a pour but d’évaluer l’impact des activités humaines sur leur diversité biologique. Elle tente également d’analyser la résilience des populations de primates face aux transformations de leurs habitats et de mettre en place des mesures de restauration.
+          <t>Histoire et développement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La primatologie n'a émergé en tant que discipline distincte au sein de la biologie que dans la deuxième moitié des années 1950. Même si l'Homme a toujours manifesté de l'intérêt pour ces animaux étrangement proches, les primates ont longtemps constitué une curiosité et un sujet d'amusement plus qu'un objet d'étude sérieuse.
 </t>
         </is>
       </c>
@@ -611,15 +623,162 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Champs d'études</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Primatologie culturelle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La culture a longtemps été considérée comme l'une des caractéristiques de la nature humaine. Le domaine de la primatologie culturelle est apparu comme un moyen d’enquêter sur les racines évolutives de la culture. Bien que l'étude de la transmission culturelle et de l’évolution des mécanismes d’apprentissage social ait été entreprise chez de nombreux animaux, les primates ont concentré l'essentiel des efforts de recherche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Primatologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Primatologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Champs d'études</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Paléoprimatologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La paléoprimatologie est l'étude des primates fossiles dans le but de mieux comprendre leur histoire évolutive. Elle comprend la paléoanthropologie, ou paléontologie humaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Primatologie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Primatologie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Champs d'études</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La biologie de la conservation, appliquée aux primates, a pour but d’évaluer l’impact des activités humaines sur leur diversité biologique. Elle tente également d’analyser la résilience des populations de primates face aux transformations de leurs habitats et de mettre en place des mesures de restauration.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Primatologie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Primatologie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Primatologues</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les primatologues sont des personnes spécialisées dans la science des primates.
-Cursus
-Firgures principales
-Louis Leakey
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les primatologues sont des personnes spécialisées dans la science des primates.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Primatologie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Primatologie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Primatologues</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Firgures principales</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Louis Leakey
 Dian Fossey
 Birutė Galdikas
 Jane Goodall
@@ -631,52 +790,124 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Primatologie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Primatologie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Primatologie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Primatologie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Ressources académiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Centres de recherche
-Ménagerie de singes de Soukhoumi (ru), en Abkhazie. Fondée en 1927 (en URSS).
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Centres de recherche</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Ménagerie de singes de Soukhoumi (ru), en Abkhazie. Fondée en 1927 (en URSS).
 Japan Monkey Centre, à Nagoya, Japon. Fondé en 1956.
 Duke Lemur Center, à Durham (Caroline du Nord), États-Unis. Fondé en 1966.
 Deutsches Primatenzentrum (de), à Göttingen, Allemagne. Fondé en 1977.
-Centre national de recherche sur les primates Yerkes
-Sociétés
-American Society of Primatologists (en)
+Centre national de recherche sur les primates Yerkes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Primatologie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Primatologie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ressources académiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sociétés</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>American Society of Primatologists (en)
 European Federation for Primatology (en)
 Société internationale de primatologie
-Société Francophone de Primatologie
-Revues
-American Journal of Primatology (en)
+Société Francophone de Primatologie</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Primatologie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Primatologie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ressources académiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Revues</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>American Journal of Primatology (en)
 Folia Primatologica (en)
 International Journal of Primatology (en)
 Journal of Human Evolution
 Primates (en)
 Journal of Medical Primatology
-Boletín de la Asociación Primatológica Española
-Congrès</t>
+Boletín de la Asociación Primatológica Española</t>
         </is>
       </c>
     </row>
